--- a/Apresentação/4 Relatório Parcial Janeiro.xlsx
+++ b/Apresentação/4 Relatório Parcial Janeiro.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Meu Drive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\NOVO GIT ONG\Projeto-ONG\Apresentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0B0652-FC49-4571-B836-5238211EDA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle Diario" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Janeiro!$A$1:$S$72</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,6 +44,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -415,11 +417,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,6 +493,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Webdings"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -877,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1040,14 +1049,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1064,29 +1088,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1096,6 +1105,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,7 +1149,7 @@
         <xdr:cNvPr id="4" name="Imagem 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0318BA13-D720-4751-8A50-2DC740360DD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0318BA13-D720-4751-8A50-2DC740360DD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1178,7 +1193,7 @@
         <xdr:cNvPr id="3" name="Group 1736">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B9E3690-5BD5-4D4C-9776-94824568FC24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B9E3690-5BD5-4D4C-9776-94824568FC24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1199,7 +1214,7 @@
           <xdr:cNvPr id="5" name="AutoShape 1745">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A719EB96-2682-4AD8-B359-2931951DCB1C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A719EB96-2682-4AD8-B359-2931951DCB1C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1311,7 +1326,7 @@
           <xdr:cNvPr id="6" name="Rectangle 1744">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B3960D3-A3D4-4F2D-8450-CBAB2D26747E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B3960D3-A3D4-4F2D-8450-CBAB2D26747E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1373,7 +1388,7 @@
           <xdr:cNvPr id="7" name="Rectangle 1743">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{557142DC-7904-4273-ABB4-8DF7552A1F63}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557142DC-7904-4273-ABB4-8DF7552A1F63}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1435,7 +1450,7 @@
           <xdr:cNvPr id="8" name="Line 1742">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5AEB5E0-9D3F-4BAD-A2DC-BB7E662B3F23}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5AEB5E0-9D3F-4BAD-A2DC-BB7E662B3F23}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1472,7 +1487,7 @@
           <xdr:cNvPr id="9" name="Rectangle 1741">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6923B147-7315-4C5E-8923-4DC74F8E1E2D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6923B147-7315-4C5E-8923-4DC74F8E1E2D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1534,7 +1549,7 @@
           <xdr:cNvPr id="10" name="Rectangle 1740">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D7AD9F5-7F27-412B-A3B7-0D8359A0203A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7AD9F5-7F27-412B-A3B7-0D8359A0203A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1596,7 +1611,7 @@
           <xdr:cNvPr id="11" name="Line 1739">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10727447-6284-4F8C-956C-83014BF86BD6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10727447-6284-4F8C-956C-83014BF86BD6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1633,7 +1648,7 @@
           <xdr:cNvPr id="12" name="Rectangle 1738">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48B7973C-2B80-4BDB-82F6-3CDF6AA29C69}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48B7973C-2B80-4BDB-82F6-3CDF6AA29C69}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1695,7 +1710,7 @@
           <xdr:cNvPr id="13" name="Rectangle 1737">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{281222AF-F57A-42E1-ABE5-0219AF68F253}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{281222AF-F57A-42E1-ABE5-0219AF68F253}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1773,7 +1788,7 @@
         <xdr:cNvPr id="14" name="Imagem 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E54F626C-15B0-402B-8123-D96BEFBD29BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E54F626C-15B0-402B-8123-D96BEFBD29BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,7 +1849,7 @@
         <xdr:cNvPr id="15" name="Imagem 30" descr="Resultado de imagem para icone telefone verde | Telefone, Telefone icone,  Icones redes sociais">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67A7FE60-EF49-460A-BB59-E9DED75156BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A7FE60-EF49-460A-BB59-E9DED75156BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1895,7 +1910,7 @@
         <xdr:cNvPr id="17" name="Imagem 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0C7B3CA-AAC3-48B8-8678-21925DDFFA97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0C7B3CA-AAC3-48B8-8678-21925DDFFA97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +1954,7 @@
         <xdr:cNvPr id="18" name="Imagem 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57E4A9E2-F70A-41F2-A410-F1B643C6E7F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E4A9E2-F70A-41F2-A410-F1B643C6E7F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1988,7 +2003,7 @@
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D69C92C9-C7BD-4853-985B-9544126A9B16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69C92C9-C7BD-4853-985B-9544126A9B16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2037,7 +2052,7 @@
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F71C485C-8095-4508-9776-B47204116A9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F71C485C-8095-4508-9776-B47204116A9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2086,7 +2101,7 @@
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51DB6C8C-9816-4EE7-B9E4-CE703B359708}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DB6C8C-9816-4EE7-B9E4-CE703B359708}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2135,7 +2150,7 @@
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33DD78D3-6356-4C11-9296-1F223C695089}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DD78D3-6356-4C11-9296-1F223C695089}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2184,7 +2199,7 @@
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{016CC3CD-40E5-446C-9F36-A281B8C52962}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{016CC3CD-40E5-446C-9F36-A281B8C52962}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2233,7 +2248,7 @@
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAA68358-85D1-46C1-AA45-FA13AE03221F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA68358-85D1-46C1-AA45-FA13AE03221F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2282,7 +2297,7 @@
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A64D8B25-AEFF-4A44-A9E4-5B20F59832E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A64D8B25-AEFF-4A44-A9E4-5B20F59832E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2331,7 +2346,7 @@
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67FC481E-686E-4E60-8AC7-5DF530FD52EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FC481E-686E-4E60-8AC7-5DF530FD52EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2380,7 +2395,7 @@
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D3174E6-0B30-41FB-B6E1-FAE18A312105}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D3174E6-0B30-41FB-B6E1-FAE18A312105}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2429,7 +2444,7 @@
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6684B1EC-8569-4E04-A2EC-97BE2E70CAE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6684B1EC-8569-4E04-A2EC-97BE2E70CAE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2478,7 +2493,7 @@
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E64BFB9-E871-4BF2-85DD-CD3B1B34D940}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E64BFB9-E871-4BF2-85DD-CD3B1B34D940}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2803,7 +2818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W66"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
@@ -3935,7 +3950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -5165,7 +5180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -6392,7 +6407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -7622,7 +7637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -8849,7 +8864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10079,7 +10094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10091,11 +10106,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10122,13 +10137,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="87"/>
+      <c r="C1" s="76"/>
       <c r="D1" s="64" t="s">
         <v>13</v>
       </c>
@@ -10147,7 +10162,7 @@
       <c r="O1" s="69"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -11464,25 +11479,25 @@
       <c r="S38" s="12"/>
     </row>
     <row r="39" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="80" t="s">
+      <c r="A39" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="82"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="79"/>
     </row>
     <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="85" t="s">
+      <c r="A40" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
       <c r="G40" s="51" t="s">
         <v>29</v>
       </c>
@@ -11499,162 +11514,162 @@
       <c r="R40" s="50"/>
       <c r="S40" s="50"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="70" t="s">
+    <row r="41" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
       <c r="G41" s="16">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="70" t="s">
+    <row r="42" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
       <c r="G42" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="70" t="s">
+    <row r="43" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
       <c r="G43" s="16"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="70" t="s">
+    <row r="44" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="70" t="s">
+    <row r="45" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
       <c r="G45" s="16"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="70" t="s">
+    <row r="46" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="71"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="92"/>
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="70" t="s">
+    <row r="47" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="71"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="92"/>
       <c r="G47" s="16"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="70" t="s">
+    <row r="48" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="92"/>
       <c r="G48" s="16"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="70" t="s">
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
       <c r="G49" s="16"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="70" t="s">
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="B50" s="71"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="92"/>
       <c r="G50" s="16"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="70" t="s">
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="B51" s="71"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="92"/>
       <c r="G51" s="16"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="70" t="s">
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="92"/>
       <c r="G52" s="16"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="70" t="s">
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="92"/>
       <c r="G53" s="16"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="70" t="s">
+    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="92"/>
       <c r="G54" s="16"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -11779,67 +11794,67 @@
       <c r="G65" s="16"/>
     </row>
     <row r="66" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="72" t="s">
+      <c r="A66" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="73"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
+      <c r="B66" s="86"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="86"/>
       <c r="G66" s="52"/>
     </row>
     <row r="67" spans="1:19" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="74" t="s">
+      <c r="A67" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="74"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
+      <c r="B67" s="87"/>
+      <c r="C67" s="87"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="87"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="78"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="78"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="78"/>
-      <c r="H68" s="78"/>
-      <c r="I68" s="78"/>
-      <c r="J68" s="78"/>
-      <c r="K68" s="78"/>
-      <c r="L68" s="78"/>
-      <c r="M68" s="78"/>
-      <c r="N68" s="78"/>
-      <c r="O68" s="78"/>
-      <c r="P68" s="78"/>
-      <c r="Q68" s="78"/>
-      <c r="R68" s="78"/>
+      <c r="B68" s="83"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="83"/>
+      <c r="J68" s="83"/>
+      <c r="K68" s="83"/>
+      <c r="L68" s="83"/>
+      <c r="M68" s="83"/>
+      <c r="N68" s="83"/>
+      <c r="O68" s="83"/>
+      <c r="P68" s="83"/>
+      <c r="Q68" s="83"/>
+      <c r="R68" s="83"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="79"/>
-      <c r="B69" s="79"/>
-      <c r="C69" s="79"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="79"/>
-      <c r="I69" s="79"/>
-      <c r="J69" s="79"/>
-      <c r="K69" s="79"/>
-      <c r="L69" s="79"/>
-      <c r="M69" s="79"/>
-      <c r="N69" s="79"/>
-      <c r="O69" s="79"/>
-      <c r="P69" s="79"/>
-      <c r="Q69" s="79"/>
-      <c r="R69" s="79"/>
+      <c r="A69" s="84"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="84"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="84"/>
+      <c r="J69" s="84"/>
+      <c r="K69" s="84"/>
+      <c r="L69" s="84"/>
+      <c r="M69" s="84"/>
+      <c r="N69" s="84"/>
+      <c r="O69" s="84"/>
+      <c r="P69" s="84"/>
+      <c r="Q69" s="84"/>
+      <c r="R69" s="84"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
@@ -11862,42 +11877,47 @@
       <c r="R70" s="12"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="75" t="s">
+      <c r="A71" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B71" s="75"/>
-      <c r="C71" s="75"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="77"/>
-      <c r="H71" s="77"/>
-      <c r="I71" s="76" t="s">
+      <c r="B71" s="80"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="82"/>
+      <c r="H71" s="82"/>
+      <c r="I71" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="J71" s="76"/>
-      <c r="K71" s="76"/>
-      <c r="L71" s="76"/>
-      <c r="M71" s="76"/>
-      <c r="N71" s="76"/>
-      <c r="O71" s="77"/>
-      <c r="P71" s="77"/>
-      <c r="Q71" s="77"/>
-      <c r="R71" s="77"/>
-      <c r="S71" s="77"/>
+      <c r="J71" s="81"/>
+      <c r="K71" s="81"/>
+      <c r="L71" s="81"/>
+      <c r="M71" s="81"/>
+      <c r="N71" s="81"/>
+      <c r="O71" s="82"/>
+      <c r="P71" s="82"/>
+      <c r="Q71" s="82"/>
+      <c r="R71" s="82"/>
+      <c r="S71" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="I71:N71"/>
+    <mergeCell ref="O71:S71"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="B68:R68"/>
+    <mergeCell ref="A69:R69"/>
     <mergeCell ref="A58:F58"/>
     <mergeCell ref="A39:G39"/>
     <mergeCell ref="A50:F50"/>
@@ -11912,21 +11932,16 @@
     <mergeCell ref="A49:F49"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="I71:N71"/>
-    <mergeCell ref="O71:S71"/>
-    <mergeCell ref="D71:H71"/>
-    <mergeCell ref="B68:R68"/>
-    <mergeCell ref="A69:R69"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.74803149606299213" bottom="0.27559055118110237" header="7.874015748031496E-2" footer="0.11811023622047245"/>
@@ -11940,10 +11955,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
@@ -11971,13 +11986,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="87"/>
+      <c r="C1" s="76"/>
       <c r="D1" s="64" t="s">
         <v>13</v>
       </c>
@@ -11996,7 +12011,7 @@
       <c r="O1" s="69"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -12803,25 +12818,25 @@
       <c r="S38" s="12"/>
     </row>
     <row r="39" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="80" t="s">
+      <c r="A39" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="82"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="79"/>
     </row>
     <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="85" t="s">
+      <c r="A40" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
       <c r="G40" s="51" t="s">
         <v>29</v>
       </c>
@@ -13116,67 +13131,67 @@
       <c r="G65" s="16"/>
     </row>
     <row r="66" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="72" t="s">
+      <c r="A66" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="73"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
+      <c r="B66" s="86"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="86"/>
       <c r="G66" s="52"/>
     </row>
     <row r="67" spans="1:19" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="74" t="s">
+      <c r="A67" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="74"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
+      <c r="B67" s="87"/>
+      <c r="C67" s="87"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="87"/>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="78"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="78"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="78"/>
-      <c r="H68" s="78"/>
-      <c r="I68" s="78"/>
-      <c r="J68" s="78"/>
-      <c r="K68" s="78"/>
-      <c r="L68" s="78"/>
-      <c r="M68" s="78"/>
-      <c r="N68" s="78"/>
-      <c r="O68" s="78"/>
-      <c r="P68" s="78"/>
-      <c r="Q68" s="78"/>
-      <c r="R68" s="78"/>
+      <c r="B68" s="83"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="83"/>
+      <c r="J68" s="83"/>
+      <c r="K68" s="83"/>
+      <c r="L68" s="83"/>
+      <c r="M68" s="83"/>
+      <c r="N68" s="83"/>
+      <c r="O68" s="83"/>
+      <c r="P68" s="83"/>
+      <c r="Q68" s="83"/>
+      <c r="R68" s="83"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="79"/>
-      <c r="B69" s="79"/>
-      <c r="C69" s="79"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="79"/>
-      <c r="I69" s="79"/>
-      <c r="J69" s="79"/>
-      <c r="K69" s="79"/>
-      <c r="L69" s="79"/>
-      <c r="M69" s="79"/>
-      <c r="N69" s="79"/>
-      <c r="O69" s="79"/>
-      <c r="P69" s="79"/>
-      <c r="Q69" s="79"/>
-      <c r="R69" s="79"/>
+      <c r="A69" s="84"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="84"/>
+      <c r="H69" s="84"/>
+      <c r="I69" s="84"/>
+      <c r="J69" s="84"/>
+      <c r="K69" s="84"/>
+      <c r="L69" s="84"/>
+      <c r="M69" s="84"/>
+      <c r="N69" s="84"/>
+      <c r="O69" s="84"/>
+      <c r="P69" s="84"/>
+      <c r="Q69" s="84"/>
+      <c r="R69" s="84"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
@@ -13199,37 +13214,56 @@
       <c r="R70" s="12"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="75" t="s">
+      <c r="A71" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B71" s="75"/>
-      <c r="C71" s="75"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="77"/>
-      <c r="H71" s="77"/>
-      <c r="I71" s="76" t="s">
+      <c r="B71" s="80"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="82"/>
+      <c r="H71" s="82"/>
+      <c r="I71" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="J71" s="76"/>
-      <c r="K71" s="76"/>
-      <c r="L71" s="76"/>
-      <c r="M71" s="76"/>
-      <c r="N71" s="76"/>
-      <c r="O71" s="77"/>
-      <c r="P71" s="77"/>
-      <c r="Q71" s="77"/>
-      <c r="R71" s="77"/>
-      <c r="S71" s="77"/>
+      <c r="J71" s="81"/>
+      <c r="K71" s="81"/>
+      <c r="L71" s="81"/>
+      <c r="M71" s="81"/>
+      <c r="N71" s="81"/>
+      <c r="O71" s="82"/>
+      <c r="P71" s="82"/>
+      <c r="Q71" s="82"/>
+      <c r="R71" s="82"/>
+      <c r="S71" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="B68:R68"/>
-    <mergeCell ref="A69:R69"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A57:F57"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="D71:H71"/>
     <mergeCell ref="I71:N71"/>
@@ -13240,37 +13274,18 @@
     <mergeCell ref="A62:F62"/>
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="B68:R68"/>
+    <mergeCell ref="A69:R69"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -14492,7 +14507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -15722,7 +15737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16949,7 +16964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18179,7 +18194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -19406,7 +19421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
